--- a/INTLINE/data/142/STANOR/09174 Wages and salaries employment and productivity by industry contents and year.xlsx
+++ b/INTLINE/data/142/STANOR/09174 Wages and salaries employment and productivity by industry contents and year.xlsx
@@ -340,7 +340,7 @@
     <x:t>Total hours worked for employees and self-employed (million workhours):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220216 08:00</x:t>
+    <x:t>20220513 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1117,7 +1117,7 @@
         <x:v>3939.1</x:v>
       </x:c>
       <x:c r="BB4" s="3" t="n">
-        <x:v>4034.5</x:v>
+        <x:v>4034.1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:54">
@@ -1281,7 +1281,7 @@
         <x:v>80.7</x:v>
       </x:c>
       <x:c r="BB5" s="3" t="n">
-        <x:v>80.1</x:v>
+        <x:v>80.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:54">
@@ -1445,7 +1445,7 @@
         <x:v>34.3</x:v>
       </x:c>
       <x:c r="BB6" s="3" t="n">
-        <x:v>36</x:v>
+        <x:v>35.9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:54">
@@ -1773,7 +1773,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="BB8" s="3" t="n">
-        <x:v>92.9</x:v>
+        <x:v>92.8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:54">
@@ -2101,7 +2101,7 @@
         <x:v>52.4</x:v>
       </x:c>
       <x:c r="BB10" s="3" t="n">
-        <x:v>54</x:v>
+        <x:v>53.8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:54">
@@ -4233,7 +4233,7 @@
         <x:v>89.2</x:v>
       </x:c>
       <x:c r="BB23" s="3" t="n">
-        <x:v>89.6</x:v>
+        <x:v>89.7</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:54">
@@ -4561,7 +4561,7 @@
         <x:v>12.4</x:v>
       </x:c>
       <x:c r="BB25" s="3" t="n">
-        <x:v>13.3</x:v>
+        <x:v>13.2</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:54">
@@ -5217,7 +5217,7 @@
         <x:v>382.3</x:v>
       </x:c>
       <x:c r="BB29" s="3" t="n">
-        <x:v>387.2</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:54">
@@ -5381,7 +5381,7 @@
         <x:v>436.1</x:v>
       </x:c>
       <x:c r="BB30" s="3" t="n">
-        <x:v>447.9</x:v>
+        <x:v>447.6</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:54">
@@ -5709,7 +5709,7 @@
         <x:v>36.3</x:v>
       </x:c>
       <x:c r="BB32" s="3" t="n">
-        <x:v>33.5</x:v>
+        <x:v>34.3</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:54">
@@ -5873,7 +5873,7 @@
         <x:v>170.8</x:v>
       </x:c>
       <x:c r="BB33" s="3" t="n">
-        <x:v>172</x:v>
+        <x:v>172.3</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:54">
@@ -6201,7 +6201,7 @@
         <x:v>104.7</x:v>
       </x:c>
       <x:c r="BB35" s="3" t="n">
-        <x:v>106.5</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:54">
@@ -6365,7 +6365,7 @@
         <x:v>156.4</x:v>
       </x:c>
       <x:c r="BB36" s="3" t="n">
-        <x:v>166.3</x:v>
+        <x:v>166.4</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:54">
@@ -6693,7 +6693,7 @@
         <x:v>44.3</x:v>
       </x:c>
       <x:c r="BB38" s="3" t="n">
-        <x:v>45.4</x:v>
+        <x:v>45.5</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:54">
@@ -7021,7 +7021,7 @@
         <x:v>222.8</x:v>
       </x:c>
       <x:c r="BB40" s="3" t="n">
-        <x:v>229.5</x:v>
+        <x:v>229.4</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:54">
@@ -7185,7 +7185,7 @@
         <x:v>175.2</x:v>
       </x:c>
       <x:c r="BB41" s="3" t="n">
-        <x:v>178.6</x:v>
+        <x:v>178.8</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:54">
@@ -7349,7 +7349,7 @@
         <x:v>311.2</x:v>
       </x:c>
       <x:c r="BB42" s="3" t="n">
-        <x:v>318.2</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:54">
@@ -7513,7 +7513,7 @@
         <x:v>315.8</x:v>
       </x:c>
       <x:c r="BB43" s="3" t="n">
-        <x:v>320.7</x:v>
+        <x:v>320.5</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:54">
@@ -7677,7 +7677,7 @@
         <x:v>743.4</x:v>
       </x:c>
       <x:c r="BB44" s="3" t="n">
-        <x:v>773</x:v>
+        <x:v>772.6</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:54">
@@ -7841,7 +7841,7 @@
         <x:v>136.5</x:v>
       </x:c>
       <x:c r="BB45" s="3" t="n">
-        <x:v>141.6</x:v>
+        <x:v>141.9</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:54">
@@ -8005,7 +8005,7 @@
         <x:v>1159.7</x:v>
       </x:c>
       <x:c r="BB46" s="3" t="n">
-        <x:v>1192</x:v>
+        <x:v>1191.2</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:54">
@@ -8169,7 +8169,7 @@
         <x:v>467.2</x:v>
       </x:c>
       <x:c r="BB47" s="3" t="n">
-        <x:v>480.5</x:v>
+        <x:v>480.6</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:54">
@@ -8333,7 +8333,7 @@
         <x:v>419.4</x:v>
       </x:c>
       <x:c r="BB48" s="3" t="n">
-        <x:v>431.2</x:v>
+        <x:v>431.3</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:54">
@@ -8661,7 +8661,7 @@
         <x:v>692.4</x:v>
       </x:c>
       <x:c r="BB50" s="3" t="n">
-        <x:v>711.5</x:v>
+        <x:v>710.7</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:54">
@@ -8825,7 +8825,7 @@
         <x:v>3863.8</x:v>
       </x:c>
       <x:c r="BB51" s="3" t="n">
-        <x:v>3961.8</x:v>
+        <x:v>3960.5</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:54">
@@ -8989,7 +8989,7 @@
         <x:v>2591.8</x:v>
       </x:c>
       <x:c r="BB52" s="3" t="n">
-        <x:v>2652.7</x:v>
+        <x:v>2652.2</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:54">
@@ -9153,7 +9153,7 @@
         <x:v>2667.1</x:v>
       </x:c>
       <x:c r="BB53" s="3" t="n">
-        <x:v>2725.5</x:v>
+        <x:v>2725.7</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:54">
@@ -9317,7 +9317,7 @@
         <x:v>1272</x:v>
       </x:c>
       <x:c r="BB54" s="3" t="n">
-        <x:v>1309</x:v>
+        <x:v>1308.4</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:54">
